--- a/Frequencia/MAF105_Noite.xlsx
+++ b/Frequencia/MAF105_Noite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="109">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -488,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -508,9 +508,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,11 +538,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -557,125 +563,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -724,7 +611,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -753,41 +668,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,18 +950,22 @@
   <dimension ref="A1:AR50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM45" sqref="AM45"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="77" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="39" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.140625" style="1"/>
@@ -1093,39 +977,39 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="10">
         <v>43319</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>43321</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <f t="shared" ref="F1:J1" si="0">D1+7</f>
         <v>43326</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="10">
         <f t="shared" si="0"/>
         <v>43328</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="10">
         <f t="shared" si="0"/>
         <v>43333</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <f t="shared" si="0"/>
         <v>43335</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="10">
         <f t="shared" si="0"/>
         <v>43340</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="19">
         <f t="shared" ref="K1:AL1" si="1">I1+7</f>
         <v>43342</v>
       </c>
@@ -1133,7 +1017,7 @@
         <f t="shared" si="1"/>
         <v>43347</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="19">
         <f t="shared" si="1"/>
         <v>43349</v>
       </c>
@@ -1246,43 +1130,45 @@
       <c r="AO1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="9"/>
+      <c r="AR1" s="21"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="20"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -1311,7 +1197,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1328,34 +1214,36 @@
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="20"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1384,7 +1272,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN50" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO50" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1395,34 +1283,36 @@
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="20"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1451,7 +1341,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
@@ -1462,34 +1352,36 @@
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="20"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1518,7 +1410,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
@@ -1529,34 +1421,36 @@
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="20"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1589,41 +1483,43 @@
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>2004</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>145</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="20"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1652,7 +1548,7 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
@@ -1663,35 +1559,39 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="D8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1719,45 +1619,47 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>2068</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="20"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1786,45 +1688,47 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="20"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1853,7 +1757,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
@@ -1864,34 +1768,36 @@
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="20"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1920,7 +1826,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1931,34 +1837,36 @@
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="20"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1987,7 +1895,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -1998,34 +1906,36 @@
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="20"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2054,7 +1964,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2065,34 +1975,36 @@
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="D14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="20"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2121,7 +2033,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2132,34 +2044,36 @@
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="D15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="20"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -2188,7 +2102,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2199,34 +2113,36 @@
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="20"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -2255,7 +2171,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
@@ -2266,34 +2182,36 @@
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="D17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="20"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -2322,7 +2240,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
@@ -2333,34 +2251,36 @@
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="D18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="20"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -2389,7 +2309,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2400,34 +2320,36 @@
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="D19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="20"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2460,41 +2382,43 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="D20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="20"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2527,41 +2451,43 @@
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="D21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="20"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -2594,41 +2520,43 @@
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="D22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="20"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2661,41 +2589,43 @@
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="D23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="20"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2724,7 +2654,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2735,34 +2665,36 @@
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="20"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2795,41 +2727,43 @@
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="D25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="20"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2858,7 +2792,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -2869,34 +2803,36 @@
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="D26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="20"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2925,7 +2861,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -2936,34 +2872,36 @@
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="D27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="20"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2992,7 +2930,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3003,34 +2941,36 @@
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="D28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="20"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -3063,41 +3003,43 @@
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="D29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="20"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -3126,7 +3068,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
@@ -3137,34 +3079,36 @@
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="D30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="20"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -3197,41 +3141,43 @@
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="D31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="20"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -3260,7 +3206,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
@@ -3271,34 +3217,36 @@
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="D32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="20"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -3327,7 +3275,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3338,34 +3286,36 @@
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="D33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="20"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -3394,7 +3344,7 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
@@ -3405,34 +3355,36 @@
       <c r="A34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="D34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="20"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -3465,41 +3417,43 @@
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="D35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="20"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -3528,7 +3482,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
@@ -3539,34 +3493,36 @@
       <c r="A36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="D36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="20"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -3595,7 +3551,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3606,34 +3562,36 @@
       <c r="A37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="20"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -3662,7 +3620,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -3673,34 +3631,36 @@
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="D38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="20"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -3729,7 +3689,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -3740,34 +3700,36 @@
       <c r="A39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="D39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="20"/>
+      <c r="L39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="20"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -3796,7 +3758,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -3807,34 +3769,36 @@
       <c r="A40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="D40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="20"/>
+      <c r="L40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="20"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3863,7 +3827,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
@@ -3874,34 +3838,36 @@
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="D41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="20"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -3930,7 +3896,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -3941,34 +3907,36 @@
       <c r="A42" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="D42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="20"/>
+      <c r="L42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="20"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -3997,7 +3965,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4008,34 +3976,36 @@
       <c r="A43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="D43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="20"/>
+      <c r="L43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="20"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -4064,7 +4034,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4075,34 +4045,36 @@
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="D44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="L44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="20"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -4131,7 +4103,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4142,34 +4114,36 @@
       <c r="A45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="17">
         <v>3056</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>107</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="D45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="20"/>
+      <c r="L45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="20"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -4198,7 +4172,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
@@ -4209,34 +4183,36 @@
       <c r="A46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="D46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="20"/>
+      <c r="L46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="20"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -4269,41 +4245,43 @@
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="D47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="L47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="20"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -4332,7 +4310,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4343,34 +4321,36 @@
       <c r="A48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
+      <c r="D48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="20"/>
+      <c r="L48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="20"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -4403,41 +4383,43 @@
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="D49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="20"/>
+      <c r="L49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="20"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -4466,7 +4448,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
@@ -4477,34 +4459,36 @@
       <c r="A50" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="D50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="20"/>
+      <c r="L50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="20"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -4533,7 +4517,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>
@@ -4552,52 +4536,52 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:AM50">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Ausente">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Ausente">
       <formula>NOT(ISERROR(SEARCH("Ausente",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Presente">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Presente">
       <formula>NOT(ISERROR(SEARCH("Presente",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F5">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Presença">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Presença">
       <formula>NOT(ISERROR(SEARCH("Presença",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Ausência">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Ausência">
       <formula>NOT(ISERROR(SEARCH("Ausência",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:J6 D8:J8 D46:J50 D10:J44">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Ausente">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Ausente">
       <formula>NOT(ISERROR(SEARCH("Ausente",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Presente">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Presente">
       <formula>NOT(ISERROR(SEARCH("Presente",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:J9">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Ausente">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Ausente">
       <formula>NOT(ISERROR(SEARCH("Ausente",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Presente">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Presente">
       <formula>NOT(ISERROR(SEARCH("Presente",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:J7">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Ausente">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Ausente">
       <formula>NOT(ISERROR(SEARCH("Ausente",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Presente">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Presente">
       <formula>NOT(ISERROR(SEARCH("Presente",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:J45">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Ausente">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Ausente">
       <formula>NOT(ISERROR(SEARCH("Ausente",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Presente">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Presente">
       <formula>NOT(ISERROR(SEARCH("Presente",D45)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Frequencia/MAF105_Noite.xlsx
+++ b/Frequencia/MAF105_Noite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="109">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -413,7 +413,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -544,6 +550,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,9 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1130,10 +1152,10 @@
       <c r="AO1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="21"/>
+      <c r="AR1" s="27"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1174,8 +1196,12 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
@@ -1197,7 +1223,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1249,8 +1275,12 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
@@ -1272,7 +1302,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN50" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO50" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1318,8 +1348,12 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
@@ -1341,7 +1375,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
@@ -1387,8 +1421,12 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -1410,7 +1448,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
@@ -1456,8 +1494,12 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1479,7 +1521,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1525,8 +1567,12 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="S7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -1552,7 +1598,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -1596,8 +1642,12 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1619,7 +1669,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1665,8 +1715,12 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="S9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -1692,7 +1746,7 @@
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1734,8 +1788,12 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="S10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -1757,7 +1815,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
@@ -1803,8 +1861,12 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="S11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -1826,11 +1888,11 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
@@ -1872,8 +1934,12 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="S12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -1895,7 +1961,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -1941,8 +2007,12 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="S13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -1964,7 +2034,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2010,8 +2080,12 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="S14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -2033,7 +2107,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2079,8 +2153,12 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="S15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -2102,7 +2180,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2148,8 +2226,12 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="S16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -2171,11 +2253,11 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
@@ -2217,8 +2299,12 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="S17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2240,7 +2326,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
@@ -2286,8 +2372,12 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="S18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -2309,7 +2399,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2355,8 +2445,12 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="S19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2378,80 +2472,82 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6">
+      <c r="D20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="6">
+      <c r="AO20" s="25">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -2493,8 +2589,12 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="S21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2516,7 +2616,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2562,8 +2662,12 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
+      <c r="S22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -2585,7 +2689,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2631,8 +2735,12 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
+      <c r="S23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -2654,7 +2762,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2700,8 +2808,12 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
+      <c r="S24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2723,7 +2835,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -2769,8 +2881,12 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
+      <c r="S25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2792,7 +2908,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -2838,8 +2954,12 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
+      <c r="S26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -2861,7 +2981,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -2907,8 +3027,12 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="S27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -2930,7 +3054,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -2976,8 +3100,12 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
+      <c r="S28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -2999,7 +3127,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3045,8 +3173,12 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -3068,11 +3200,11 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -3114,8 +3246,12 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
+      <c r="S30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -3141,7 +3277,7 @@
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -3183,8 +3319,12 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="S31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -3206,7 +3346,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
@@ -3252,8 +3392,12 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="S32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
@@ -3275,7 +3419,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3321,8 +3465,12 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
+      <c r="S33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -3344,11 +3492,11 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -3390,8 +3538,12 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
+      <c r="S34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -3413,7 +3565,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
@@ -3459,8 +3611,12 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="S35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -3482,11 +3638,11 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
@@ -3528,8 +3684,12 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="S36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -3551,7 +3711,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3597,8 +3757,12 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
+      <c r="S37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
@@ -3620,7 +3784,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -3666,8 +3830,12 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
+      <c r="S38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -3689,7 +3857,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -3735,8 +3903,12 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
+      <c r="S39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -3758,7 +3930,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -3804,8 +3976,12 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="S40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
@@ -3827,11 +4003,11 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -3873,8 +4049,12 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="S41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
@@ -3896,11 +4076,11 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
@@ -3942,8 +4122,12 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="S42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -3965,7 +4149,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4011,8 +4195,12 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
+      <c r="S43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -4034,7 +4222,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4080,8 +4268,12 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="S44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -4103,7 +4295,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4149,8 +4341,12 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="S45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
@@ -4172,7 +4368,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
@@ -4218,8 +4414,12 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
+      <c r="S46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
@@ -4241,7 +4441,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
@@ -4287,8 +4487,12 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="S47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
@@ -4310,7 +4514,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4356,8 +4560,12 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="S48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -4379,7 +4587,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -4425,8 +4633,12 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
+      <c r="S49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -4448,7 +4660,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
@@ -4494,8 +4706,12 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
+      <c r="S50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -4517,7 +4733,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Noite.xlsx
+++ b/Frequencia/MAF105_Noite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="109">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -971,9 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1207,8 +1207,12 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="Z2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
@@ -1223,7 +1227,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1286,8 +1290,12 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="Z3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -1306,7 +1314,7 @@
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO50" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -1359,8 +1367,12 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="Z4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -1375,11 +1387,11 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
@@ -1432,8 +1444,12 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
+      <c r="Z5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -1448,11 +1464,11 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -1505,8 +1521,12 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
+      <c r="Z6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
@@ -1525,7 +1545,7 @@
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
@@ -1578,8 +1598,12 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
+      <c r="Z7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -1598,7 +1622,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -1653,8 +1677,12 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
+      <c r="Z8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -1669,11 +1697,11 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
@@ -1726,8 +1754,12 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
+      <c r="Z9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
@@ -1742,11 +1774,11 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1799,8 +1831,12 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
+      <c r="Z10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -1815,7 +1851,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
@@ -1872,8 +1908,12 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
+      <c r="Z11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
@@ -1888,7 +1928,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1945,8 +1985,12 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
+      <c r="Z12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
@@ -1961,7 +2005,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -2018,8 +2062,12 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
+      <c r="Z13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -2034,7 +2082,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2091,8 +2139,12 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
+      <c r="Z14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
@@ -2107,7 +2159,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2164,8 +2216,12 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
+      <c r="Z15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -2180,7 +2236,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2237,8 +2293,12 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
+      <c r="Z16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
@@ -2253,11 +2313,11 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
@@ -2310,8 +2370,12 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
+      <c r="Z17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -2326,7 +2390,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
@@ -2383,8 +2447,12 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
+      <c r="Z18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -2399,7 +2467,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2456,8 +2524,12 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
+      <c r="Z19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
@@ -2472,7 +2544,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
@@ -2600,8 +2672,12 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
+      <c r="Z21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
@@ -2616,11 +2692,11 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -2673,8 +2749,12 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
+      <c r="Z22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
@@ -2689,7 +2769,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2746,8 +2826,12 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
+      <c r="Z23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
@@ -2762,7 +2846,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2819,8 +2903,12 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
+      <c r="Z24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
@@ -2835,11 +2923,11 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
@@ -2892,8 +2980,12 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
+      <c r="Z25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
@@ -2908,7 +3000,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -2965,8 +3057,12 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
+      <c r="Z26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
@@ -2981,7 +3077,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -3038,8 +3134,12 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
+      <c r="Z27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
@@ -3054,11 +3154,11 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
@@ -3111,8 +3211,12 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
+      <c r="Z28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
@@ -3127,7 +3231,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3184,8 +3288,12 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
+      <c r="Z29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
@@ -3204,7 +3312,7 @@
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -3257,8 +3365,12 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
+      <c r="Z30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
@@ -3277,7 +3389,7 @@
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -3330,8 +3442,12 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
+      <c r="Z31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
@@ -3346,7 +3462,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
@@ -3403,8 +3519,12 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
+      <c r="Z32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
@@ -3419,7 +3539,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3476,8 +3596,12 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
+      <c r="Z33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
@@ -3492,11 +3616,11 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -3549,8 +3673,12 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
+      <c r="Z34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
@@ -3565,7 +3693,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
@@ -3622,8 +3750,12 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
+      <c r="Z35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
@@ -3638,11 +3770,11 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
@@ -3695,8 +3827,12 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
+      <c r="Z36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
@@ -3711,7 +3847,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3768,8 +3904,12 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
+      <c r="Z37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
@@ -3784,7 +3924,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -3841,8 +3981,12 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
+      <c r="Z38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
@@ -3857,7 +4001,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -3914,8 +4058,12 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
+      <c r="Z39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
@@ -3930,7 +4078,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -3987,8 +4135,12 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
+      <c r="Z40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
@@ -4007,7 +4159,7 @@
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -4060,8 +4212,12 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
+      <c r="Z41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
@@ -4076,11 +4232,11 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
@@ -4133,8 +4289,12 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
+      <c r="Z42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
@@ -4149,7 +4309,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4206,8 +4366,12 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
+      <c r="Z43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
@@ -4222,7 +4386,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4279,8 +4443,12 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
+      <c r="Z44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
@@ -4295,7 +4463,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4352,8 +4520,12 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
+      <c r="Z45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
@@ -4368,11 +4540,11 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
@@ -4425,8 +4597,12 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
+      <c r="Z46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
@@ -4441,7 +4617,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
@@ -4498,8 +4674,12 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
+      <c r="Z47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
@@ -4514,7 +4694,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4571,8 +4751,12 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
+      <c r="Z48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA48" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
@@ -4587,7 +4771,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -4644,8 +4828,12 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
+      <c r="Z49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
@@ -4660,11 +4848,11 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
@@ -4717,8 +4905,12 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
+      <c r="Z50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
@@ -4733,7 +4925,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Noite.xlsx
+++ b/Frequencia/MAF105_Noite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="109">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -971,9 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z39" sqref="Z39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1217,7 +1217,9 @@
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AF2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
@@ -1231,7 +1233,7 @@
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>7</v>
@@ -1300,7 +1302,9 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
+      <c r="AF3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
@@ -1314,7 +1318,7 @@
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO50" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -1377,7 +1381,9 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+      <c r="AF4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
@@ -1391,7 +1397,7 @@
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
@@ -1454,7 +1460,9 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
+      <c r="AF5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
@@ -1468,7 +1476,7 @@
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -1531,7 +1539,9 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="AF6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
@@ -1545,7 +1555,7 @@
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
@@ -1608,7 +1618,9 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="AF7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
@@ -1622,7 +1634,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -1687,7 +1699,9 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="AF8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
@@ -1697,7 +1711,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1764,7 +1778,9 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="AF9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
@@ -1778,7 +1794,7 @@
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1841,7 +1857,9 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="AF10" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
@@ -1855,7 +1873,7 @@
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1918,7 +1936,9 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="AF11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
@@ -1928,7 +1948,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1995,7 +2015,9 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="AF12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
@@ -2005,7 +2027,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -2072,7 +2094,9 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
+      <c r="AF13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
@@ -2082,7 +2106,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2149,7 +2173,9 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
+      <c r="AF14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
@@ -2159,7 +2185,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2226,7 +2252,9 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
+      <c r="AF15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
@@ -2236,7 +2264,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2303,7 +2331,9 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
+      <c r="AF16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
@@ -2317,7 +2347,7 @@
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
@@ -2380,7 +2410,9 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
+      <c r="AF17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
@@ -2390,7 +2422,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
@@ -2457,7 +2489,9 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="AF18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
@@ -2467,7 +2501,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2534,7 +2568,9 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
+      <c r="AF19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
@@ -2544,7 +2580,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
@@ -2605,7 +2641,9 @@
       <c r="AC20" s="25"/>
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
+      <c r="AF20" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
       <c r="AI20" s="25"/>
@@ -2619,7 +2657,7 @@
       </c>
       <c r="AO20" s="25">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -2682,7 +2720,9 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
+      <c r="AF21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
@@ -2692,7 +2732,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2759,7 +2799,9 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
+      <c r="AF22" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
@@ -2769,7 +2811,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2836,7 +2878,9 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
+      <c r="AF23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
@@ -2846,7 +2890,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2913,7 +2957,9 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
+      <c r="AF24" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
@@ -2923,7 +2969,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -2990,7 +3036,9 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
+      <c r="AF25" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
@@ -3004,7 +3052,7 @@
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
@@ -3067,7 +3115,9 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
+      <c r="AF26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
@@ -3077,7 +3127,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -3144,7 +3194,9 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
+      <c r="AF27" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
@@ -3154,7 +3206,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3221,7 +3273,9 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
+      <c r="AF28" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
@@ -3231,7 +3285,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3298,7 +3352,9 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
+      <c r="AF29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
@@ -3312,7 +3368,7 @@
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -3375,7 +3431,9 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
+      <c r="AF30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
@@ -3389,7 +3447,7 @@
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -3452,7 +3510,9 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
+      <c r="AF31" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
@@ -3466,7 +3526,7 @@
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
@@ -3529,7 +3589,9 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
+      <c r="AF32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
@@ -3539,7 +3601,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3606,7 +3668,9 @@
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
+      <c r="AF33" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
@@ -3620,7 +3684,7 @@
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -3683,7 +3747,9 @@
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
+      <c r="AF34" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
@@ -3693,7 +3759,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
@@ -3760,7 +3826,9 @@
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
+      <c r="AF35" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
@@ -3770,7 +3838,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
@@ -3837,7 +3905,9 @@
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
+      <c r="AF36" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
@@ -3847,7 +3917,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3914,7 +3984,9 @@
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
       <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
+      <c r="AF37" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
@@ -3924,7 +3996,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -3991,7 +4063,9 @@
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
+      <c r="AF38" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4001,7 +4075,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -4068,7 +4142,9 @@
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
+      <c r="AF39" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
@@ -4078,7 +4154,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -4145,7 +4221,9 @@
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
+      <c r="AF40" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
@@ -4159,7 +4237,7 @@
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -4222,7 +4300,9 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
+      <c r="AF41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
@@ -4232,7 +4312,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -4299,7 +4379,9 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
+      <c r="AF42" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
@@ -4313,7 +4395,7 @@
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
@@ -4376,7 +4458,9 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
+      <c r="AF43" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
@@ -4390,7 +4474,7 @@
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
@@ -4453,7 +4537,9 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
+      <c r="AF44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
@@ -4463,7 +4549,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4530,7 +4616,9 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
+      <c r="AF45" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
@@ -4544,7 +4632,7 @@
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
@@ -4607,7 +4695,9 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
+      <c r="AF46" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
@@ -4617,7 +4707,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
@@ -4684,7 +4774,9 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
+      <c r="AF47" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
@@ -4698,7 +4790,7 @@
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
@@ -4761,7 +4853,9 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
+      <c r="AF48" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
@@ -4775,7 +4869,7 @@
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
@@ -4838,7 +4932,9 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
+      <c r="AF49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
@@ -4848,7 +4944,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
@@ -4915,7 +5011,9 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
+      <c r="AF50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
@@ -4925,7 +5023,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Noite.xlsx
+++ b/Frequencia/MAF105_Noite.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9330" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="MAF105_T1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="109">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -971,9 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1221,7 +1221,9 @@
         <v>8</v>
       </c>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
+      <c r="AH2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>7</v>
@@ -1306,7 +1308,9 @@
         <v>8</v>
       </c>
       <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="AH3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
@@ -1318,7 +1322,7 @@
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO50" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -1385,7 +1389,9 @@
         <v>8</v>
       </c>
       <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="AH4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
@@ -1393,7 +1399,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
@@ -1464,7 +1470,9 @@
         <v>8</v>
       </c>
       <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
+      <c r="AH5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
@@ -1476,7 +1484,7 @@
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -1543,7 +1551,9 @@
         <v>8</v>
       </c>
       <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
+      <c r="AH6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
@@ -1551,7 +1561,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1622,7 +1632,9 @@
         <v>8</v>
       </c>
       <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
+      <c r="AH7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
@@ -1634,7 +1646,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -1703,7 +1715,9 @@
         <v>7</v>
       </c>
       <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
+      <c r="AH8" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
@@ -1715,7 +1729,7 @@
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
@@ -1782,7 +1796,9 @@
         <v>8</v>
       </c>
       <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
+      <c r="AH9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
@@ -1794,7 +1810,7 @@
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
@@ -1857,11 +1873,11 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
+      <c r="AH10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
@@ -1869,11 +1885,11 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1940,7 +1956,9 @@
         <v>7</v>
       </c>
       <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
+      <c r="AH11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
@@ -1948,7 +1966,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -2019,7 +2037,9 @@
         <v>7</v>
       </c>
       <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
+      <c r="AH12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
@@ -2027,7 +2047,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -2098,7 +2118,9 @@
         <v>7</v>
       </c>
       <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
+      <c r="AH13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
@@ -2106,7 +2128,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2177,7 +2199,9 @@
         <v>7</v>
       </c>
       <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
+      <c r="AH14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
@@ -2185,7 +2209,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2256,7 +2280,9 @@
         <v>7</v>
       </c>
       <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
+      <c r="AH15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
@@ -2264,7 +2290,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2335,7 +2361,9 @@
         <v>8</v>
       </c>
       <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
+      <c r="AH16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
@@ -2347,7 +2375,7 @@
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
@@ -2414,7 +2442,9 @@
         <v>7</v>
       </c>
       <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
+      <c r="AH17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
@@ -2422,7 +2452,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
@@ -2493,7 +2523,9 @@
         <v>7</v>
       </c>
       <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
+      <c r="AH18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2501,7 +2533,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2572,7 +2604,9 @@
         <v>7</v>
       </c>
       <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
+      <c r="AH19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2584,7 +2618,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -2645,7 +2679,9 @@
         <v>8</v>
       </c>
       <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
+      <c r="AH20" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="AI20" s="25"/>
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
@@ -2657,7 +2693,7 @@
       </c>
       <c r="AO20" s="25">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -2724,7 +2760,9 @@
         <v>7</v>
       </c>
       <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
+      <c r="AH21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2732,7 +2770,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2803,7 +2841,9 @@
         <v>7</v>
       </c>
       <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
+      <c r="AH22" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -2811,7 +2851,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2882,7 +2922,9 @@
         <v>7</v>
       </c>
       <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
+      <c r="AH23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -2890,7 +2932,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2961,7 +3003,9 @@
         <v>7</v>
       </c>
       <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
+      <c r="AH24" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -2969,7 +3013,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -3040,7 +3084,9 @@
         <v>8</v>
       </c>
       <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
+      <c r="AH25" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3048,7 +3094,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -3119,7 +3165,9 @@
         <v>7</v>
       </c>
       <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
+      <c r="AH26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3127,7 +3175,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -3198,7 +3246,9 @@
         <v>7</v>
       </c>
       <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
+      <c r="AH27" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3206,7 +3256,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3277,7 +3327,9 @@
         <v>7</v>
       </c>
       <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
+      <c r="AH28" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3285,7 +3337,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3356,7 +3408,9 @@
         <v>8</v>
       </c>
       <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
+      <c r="AH29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
@@ -3368,7 +3422,7 @@
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -3435,7 +3489,9 @@
         <v>8</v>
       </c>
       <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
+      <c r="AH30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
@@ -3447,7 +3503,7 @@
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -3514,7 +3570,9 @@
         <v>8</v>
       </c>
       <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
+      <c r="AH31" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
@@ -3526,7 +3584,7 @@
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
@@ -3593,7 +3651,9 @@
         <v>7</v>
       </c>
       <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
+      <c r="AH32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
@@ -3601,7 +3661,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3672,7 +3732,9 @@
         <v>8</v>
       </c>
       <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
+      <c r="AH33" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
@@ -3684,7 +3746,7 @@
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -3751,7 +3813,9 @@
         <v>7</v>
       </c>
       <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
+      <c r="AH34" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
@@ -3759,7 +3823,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
@@ -3830,7 +3894,9 @@
         <v>7</v>
       </c>
       <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
+      <c r="AH35" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
@@ -3842,7 +3908,7 @@
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
@@ -3909,7 +3975,9 @@
         <v>7</v>
       </c>
       <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
+      <c r="AH36" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
@@ -3917,7 +3985,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3988,7 +4056,9 @@
         <v>7</v>
       </c>
       <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
+      <c r="AH37" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
@@ -3996,7 +4066,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -4067,7 +4137,9 @@
         <v>7</v>
       </c>
       <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
+      <c r="AH38" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
@@ -4075,7 +4147,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -4146,7 +4218,9 @@
         <v>7</v>
       </c>
       <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
+      <c r="AH39" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
@@ -4158,7 +4232,7 @@
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
@@ -4225,7 +4299,9 @@
         <v>8</v>
       </c>
       <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
+      <c r="AH40" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
@@ -4237,7 +4313,7 @@
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -4304,7 +4380,9 @@
         <v>7</v>
       </c>
       <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
+      <c r="AH41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
@@ -4312,7 +4390,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -4383,7 +4461,9 @@
         <v>8</v>
       </c>
       <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
+      <c r="AH42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
@@ -4391,7 +4471,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4462,7 +4542,9 @@
         <v>8</v>
       </c>
       <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
+      <c r="AH43" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
@@ -4470,7 +4552,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4541,7 +4623,9 @@
         <v>7</v>
       </c>
       <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
+      <c r="AH44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
@@ -4549,7 +4633,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4620,7 +4704,9 @@
         <v>8</v>
       </c>
       <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
+      <c r="AH45" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
@@ -4632,7 +4718,7 @@
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
@@ -4699,7 +4785,9 @@
         <v>7</v>
       </c>
       <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
+      <c r="AH46" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
@@ -4707,7 +4795,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
@@ -4778,7 +4866,9 @@
         <v>8</v>
       </c>
       <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
+      <c r="AH47" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
@@ -4786,7 +4876,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4857,7 +4947,9 @@
         <v>8</v>
       </c>
       <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
+      <c r="AH48" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
@@ -4869,7 +4961,7 @@
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
@@ -4936,7 +5028,9 @@
         <v>7</v>
       </c>
       <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
+      <c r="AH49" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
@@ -4948,7 +5042,7 @@
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
@@ -5015,7 +5109,9 @@
         <v>7</v>
       </c>
       <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
+      <c r="AH50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
@@ -5023,7 +5119,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Noite.xlsx
+++ b/Frequencia/MAF105_Noite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="109">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -971,9 +971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="12" topLeftCell="AJ42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="AO44" sqref="AO44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1215,7 +1217,9 @@
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
+      <c r="AD2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6" t="s">
         <v>8</v>
@@ -1227,7 +1231,9 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
+      <c r="AL2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
@@ -1235,7 +1241,7 @@
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>7</v>
@@ -1302,7 +1308,9 @@
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
+      <c r="AD3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6" t="s">
         <v>8</v>
@@ -1314,7 +1322,9 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
+      <c r="AL3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN50" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
@@ -1322,7 +1332,7 @@
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO50" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -1383,7 +1393,9 @@
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+      <c r="AD4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6" t="s">
         <v>8</v>
@@ -1395,11 +1407,13 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
+      <c r="AL4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
@@ -1464,7 +1478,9 @@
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="AD5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6" t="s">
         <v>8</v>
@@ -1476,15 +1492,17 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
+      <c r="AL5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -1545,7 +1563,9 @@
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="AD6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6" t="s">
         <v>8</v>
@@ -1557,11 +1577,13 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
+      <c r="AL6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1626,7 +1648,9 @@
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="AD7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6" t="s">
         <v>8</v>
@@ -1638,7 +1662,9 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+      <c r="AL7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6">
         <f t="shared" si="2"/>
@@ -1646,7 +1672,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -1709,7 +1735,9 @@
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
+      <c r="AD8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6" t="s">
         <v>7</v>
@@ -1721,11 +1749,13 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
+      <c r="AL8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1790,7 +1820,9 @@
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6" t="s">
         <v>8</v>
@@ -1802,11 +1834,13 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+      <c r="AL9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
@@ -1871,7 +1905,9 @@
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="AD10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
@@ -1881,15 +1917,17 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="AL10" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
@@ -1950,7 +1988,9 @@
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
+      <c r="AD11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6" t="s">
         <v>7</v>
@@ -1962,11 +2002,13 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
+      <c r="AL11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -2031,7 +2073,9 @@
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="AD12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6" t="s">
         <v>7</v>
@@ -2043,15 +2087,17 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+      <c r="AL12" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
@@ -2112,7 +2158,9 @@
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
+      <c r="AD13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6" t="s">
         <v>7</v>
@@ -2124,11 +2172,13 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+      <c r="AL13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2193,7 +2243,9 @@
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
+      <c r="AD14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6" t="s">
         <v>7</v>
@@ -2205,11 +2257,13 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
+      <c r="AL14" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2274,7 +2328,9 @@
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="AD15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6" t="s">
         <v>7</v>
@@ -2286,11 +2342,13 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
+      <c r="AL15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2355,7 +2413,9 @@
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="AD16" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6" t="s">
         <v>8</v>
@@ -2367,15 +2427,17 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
+      <c r="AL16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
@@ -2436,7 +2498,9 @@
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="AD17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6" t="s">
         <v>7</v>
@@ -2448,11 +2512,13 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
+      <c r="AL17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
@@ -2517,7 +2583,9 @@
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="AD18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6" t="s">
         <v>7</v>
@@ -2529,11 +2597,13 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
+      <c r="AL18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2598,7 +2668,9 @@
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
+      <c r="AD19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6" t="s">
         <v>7</v>
@@ -2610,11 +2682,13 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
+      <c r="AL19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
@@ -2673,7 +2747,9 @@
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
       <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
+      <c r="AD20" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25" t="s">
         <v>8</v>
@@ -2685,7 +2761,9 @@
       <c r="AI20" s="25"/>
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
+      <c r="AL20" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="AM20" s="25"/>
       <c r="AN20" s="25">
         <f t="shared" si="2"/>
@@ -2693,7 +2771,7 @@
       </c>
       <c r="AO20" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -2754,7 +2832,9 @@
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
+      <c r="AD21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
         <v>7</v>
@@ -2766,11 +2846,13 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
+      <c r="AL21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2835,7 +2917,9 @@
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
+      <c r="AD22" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6" t="s">
         <v>7</v>
@@ -2847,11 +2931,13 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
+      <c r="AL22" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2916,7 +3002,9 @@
       </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
+      <c r="AD23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6" t="s">
         <v>7</v>
@@ -2928,11 +3016,13 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
+      <c r="AL23" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2997,7 +3087,9 @@
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
+      <c r="AD24" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6" t="s">
         <v>7</v>
@@ -3009,11 +3101,13 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
+      <c r="AL24" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -3078,7 +3172,9 @@
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
+      <c r="AD25" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6" t="s">
         <v>8</v>
@@ -3090,11 +3186,13 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
+      <c r="AL25" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -3159,7 +3257,9 @@
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
+      <c r="AD26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6" t="s">
         <v>7</v>
@@ -3171,11 +3271,13 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
+      <c r="AL26" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -3240,7 +3342,9 @@
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
+      <c r="AD27" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6" t="s">
         <v>7</v>
@@ -3252,11 +3356,13 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
+      <c r="AL27" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3321,7 +3427,9 @@
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
+      <c r="AD28" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
         <v>7</v>
@@ -3333,7 +3441,9 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
+      <c r="AL28" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
@@ -3341,7 +3451,7 @@
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
@@ -3402,7 +3512,9 @@
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
+      <c r="AD29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6" t="s">
         <v>8</v>
@@ -3414,7 +3526,9 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
+      <c r="AL29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
@@ -3422,7 +3536,7 @@
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -3483,7 +3597,9 @@
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
+      <c r="AD30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE30" s="6"/>
       <c r="AF30" s="6" t="s">
         <v>8</v>
@@ -3495,7 +3611,9 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
+      <c r="AL30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="2"/>
@@ -3503,7 +3621,7 @@
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -3564,7 +3682,9 @@
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
+      <c r="AD31" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE31" s="6"/>
       <c r="AF31" s="6" t="s">
         <v>8</v>
@@ -3576,7 +3696,9 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
+      <c r="AL31" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
@@ -3584,7 +3706,7 @@
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
@@ -3645,7 +3767,9 @@
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
+      <c r="AD32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="6" t="s">
         <v>7</v>
@@ -3657,11 +3781,13 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
+      <c r="AL32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3726,7 +3852,9 @@
       </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
+      <c r="AD33" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE33" s="6"/>
       <c r="AF33" s="6" t="s">
         <v>8</v>
@@ -3738,15 +3866,17 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
+      <c r="AL33" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -3807,7 +3937,9 @@
       </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
+      <c r="AD34" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6" t="s">
         <v>7</v>
@@ -3819,11 +3951,13 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
+      <c r="AL34" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
@@ -3888,7 +4022,9 @@
       </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
+      <c r="AD35" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6" t="s">
         <v>7</v>
@@ -3900,15 +4036,17 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
+      <c r="AL35" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
@@ -3969,7 +4107,9 @@
       </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
+      <c r="AD36" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE36" s="6"/>
       <c r="AF36" s="6" t="s">
         <v>7</v>
@@ -3981,11 +4121,13 @@
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
+      <c r="AL36" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -4050,7 +4192,9 @@
       </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
+      <c r="AD37" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE37" s="6"/>
       <c r="AF37" s="6" t="s">
         <v>7</v>
@@ -4062,11 +4206,13 @@
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
+      <c r="AL37" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -4131,7 +4277,9 @@
       </c>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
+      <c r="AD38" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="6" t="s">
         <v>7</v>
@@ -4143,11 +4291,13 @@
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
+      <c r="AL38" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -4212,7 +4362,9 @@
       </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
+      <c r="AD39" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6" t="s">
         <v>7</v>
@@ -4224,11 +4376,13 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AL39" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -4293,7 +4447,9 @@
       </c>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
+      <c r="AD40" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6" t="s">
         <v>8</v>
@@ -4305,7 +4461,9 @@
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
+      <c r="AL40" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
@@ -4313,7 +4471,7 @@
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -4374,7 +4532,9 @@
       </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
+      <c r="AD41" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE41" s="6"/>
       <c r="AF41" s="6" t="s">
         <v>7</v>
@@ -4386,15 +4546,17 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
-      <c r="AL41" s="6"/>
+      <c r="AL41" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
@@ -4455,7 +4617,9 @@
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
+      <c r="AD42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6" t="s">
         <v>8</v>
@@ -4467,11 +4631,13 @@
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
+      <c r="AL42" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4536,7 +4702,9 @@
       </c>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
+      <c r="AD43" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6" t="s">
         <v>8</v>
@@ -4548,11 +4716,13 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
+      <c r="AL43" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4617,7 +4787,9 @@
       </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
+      <c r="AD44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6" t="s">
         <v>7</v>
@@ -4629,11 +4801,13 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
+      <c r="AL44" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4698,7 +4872,9 @@
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
+      <c r="AD45" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6" t="s">
         <v>8</v>
@@ -4710,7 +4886,9 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
+      <c r="AL45" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
@@ -4718,7 +4896,7 @@
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
@@ -4779,7 +4957,9 @@
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
+      <c r="AD46" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6" t="s">
         <v>7</v>
@@ -4791,11 +4971,13 @@
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
+      <c r="AL46" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
@@ -4860,7 +5042,9 @@
       </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
+      <c r="AD47" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE47" s="6"/>
       <c r="AF47" s="6" t="s">
         <v>8</v>
@@ -4872,11 +5056,13 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
-      <c r="AL47" s="6"/>
+      <c r="AL47" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4941,7 +5127,9 @@
       </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
+      <c r="AD48" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6" t="s">
         <v>8</v>
@@ -4953,11 +5141,13 @@
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
+      <c r="AL48" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -5022,7 +5212,9 @@
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
+      <c r="AD49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6" t="s">
         <v>7</v>
@@ -5034,15 +5226,17 @@
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
-      <c r="AL49" s="6"/>
+      <c r="AL49" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
@@ -5103,7 +5297,9 @@
       </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
+      <c r="AD50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6" t="s">
         <v>7</v>
@@ -5115,11 +5311,13 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
+      <c r="AL50" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>
